--- a/MainTop/02.12.2925 Таня ВБ/спрос_2-12-2025 Таня мес с 02-11-2025 по 02-12-2025_print_sorted.xlsx
+++ b/MainTop/02.12.2925 Таня ВБ/спрос_2-12-2025 Таня мес с 02-11-2025 по 02-12-2025_print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\02.12.2925 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D398AC4E-912B-463E-A479-D09CB59FCBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52487D3-5E06-4235-801B-6C410E2B7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
     <t>Термонаклейка Спанч Боб и друзья</t>
   </si>
   <si>
-    <t>на 4 города</t>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -325,11 +325,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -632,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,24 +644,24 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -674,12 +674,12 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>B2/4</f>
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -692,12 +692,12 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E61" si="0">B3/4</f>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -710,12 +710,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -728,12 +728,12 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -746,12 +746,12 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -764,12 +764,12 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -782,12 +782,12 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -800,12 +800,12 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -818,12 +818,12 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -836,12 +836,12 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -854,12 +854,12 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -872,12 +872,12 @@
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -890,12 +890,12 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -908,12 +908,12 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="D38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="D39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="D41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="D43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="D50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="D51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="D52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="D57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="D58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="D59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="D60" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1736,13 +1736,13 @@
       <c r="D61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="8"/>
+      <c r="E62" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MainTop/02.12.2925 Таня ВБ/спрос_2-12-2025 Таня мес с 02-11-2025 по 02-12-2025_print_sorted.xlsx
+++ b/MainTop/02.12.2925 Таня ВБ/спрос_2-12-2025 Таня мес с 02-11-2025 по 02-12-2025_print_sorted.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\02.12.2925 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\02.12.2925 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D398AC4E-912B-463E-A479-D09CB59FCBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A4AA5-FC6E-48DA-830E-78A514AEFCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -635,13 +646,15 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1746,5 +1759,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MainTop/02.12.2925 Таня ВБ/спрос_2-12-2025 Таня мес с 02-11-2025 по 02-12-2025_print_sorted.xlsx
+++ b/MainTop/02.12.2925 Таня ВБ/спрос_2-12-2025 Таня мес с 02-11-2025 по 02-12-2025_print_sorted.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\02.12.2925 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\02.12.2925 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A4AA5-FC6E-48DA-830E-78A514AEFCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52487D3-5E06-4235-801B-6C410E2B7132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -234,7 +223,7 @@
     <t>Термонаклейка Спанч Боб и друзья</t>
   </si>
   <si>
-    <t>на 4 города</t>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -336,11 +325,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -643,38 +632,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -687,12 +674,12 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>B2/4</f>
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -705,12 +692,12 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E61" si="0">B3/4</f>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -723,12 +710,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -741,12 +728,12 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -759,12 +746,12 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -777,12 +764,12 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -795,12 +782,12 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -813,12 +800,12 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -831,12 +818,12 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -849,12 +836,12 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -867,12 +854,12 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -885,12 +872,12 @@
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -903,12 +890,12 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -921,12 +908,12 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -939,7 +926,7 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -957,7 +944,7 @@
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -975,7 +962,7 @@
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -993,7 +980,7 @@
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1011,7 +998,7 @@
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1029,7 +1016,7 @@
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1047,7 +1034,7 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1065,7 +1052,7 @@
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1083,7 +1070,7 @@
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1101,7 +1088,7 @@
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1119,7 +1106,7 @@
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1137,7 +1124,7 @@
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1155,7 +1142,7 @@
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1173,7 +1160,7 @@
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1191,7 +1178,7 @@
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1209,7 +1196,7 @@
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1227,7 +1214,7 @@
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1245,7 +1232,7 @@
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1263,7 +1250,7 @@
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1281,7 +1268,7 @@
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1299,7 +1286,7 @@
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1317,7 +1304,7 @@
       <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1335,7 +1322,7 @@
       <c r="D38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1353,7 +1340,7 @@
       <c r="D39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1371,7 +1358,7 @@
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1389,7 +1376,7 @@
       <c r="D41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1407,7 +1394,7 @@
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1425,7 +1412,7 @@
       <c r="D43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1443,7 +1430,7 @@
       <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1461,7 +1448,7 @@
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1479,7 +1466,7 @@
       <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1497,7 +1484,7 @@
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1515,7 +1502,7 @@
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1533,7 +1520,7 @@
       <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1551,7 +1538,7 @@
       <c r="D50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1569,7 +1556,7 @@
       <c r="D51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1587,7 +1574,7 @@
       <c r="D52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1605,7 +1592,7 @@
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1623,7 +1610,7 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1641,7 +1628,7 @@
       <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1659,7 +1646,7 @@
       <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1677,7 +1664,7 @@
       <c r="D57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1695,7 +1682,7 @@
       <c r="D58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1713,7 +1700,7 @@
       <c r="D59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1731,7 +1718,7 @@
       <c r="D60" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1749,16 +1736,15 @@
       <c r="D61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="8"/>
+      <c r="E62" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>